--- a/github.xlsx
+++ b/github.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Create new project/file in git repositry</t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>Steps</t>
+  </si>
+  <si>
+    <t>Upload/push files from local machine to git repo(exist)</t>
+  </si>
+  <si>
+    <t>1.Open command line: git</t>
+  </si>
+  <si>
+    <t>2.git config --global user.name "bosskiruba"</t>
+  </si>
+  <si>
+    <t>3.git config --global user.email "bosskiruba@gmail.com"</t>
+  </si>
+  <si>
+    <t>4. dir , 5.cd &lt;folder_name&gt;</t>
+  </si>
+  <si>
+    <t>8.git add .  &lt;add all files from that dir to repo&gt;</t>
+  </si>
+  <si>
+    <t>6. rd .git /S/Q  &lt;remove all exist git dir from that directory folder&gt;</t>
+  </si>
+  <si>
+    <t>7.git init</t>
+  </si>
+  <si>
+    <t>9.git commit -m "&lt;message&gt;</t>
+  </si>
+  <si>
+    <t>10.git remote add origin &lt;url of git repo created&gt;</t>
+  </si>
+  <si>
+    <t>11.git push -u origin master</t>
+  </si>
+  <si>
+    <t>12. wait for username/mail id/password to enter</t>
   </si>
 </sst>
 </file>
@@ -427,15 +463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -524,9 +561,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
